--- a/ExtractSREO/SREOs/RPA REO Schedule - 01.31.2022.xlsx
+++ b/ExtractSREO/SREOs/RPA REO Schedule - 01.31.2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/565dc21372e1cd42/Desktop/LoanBoss/SREOs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\source\repos\ExtractSREO\ExtractSREO\SREOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DDB73DC-5309-4BBB-81C7-126CAB10D35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6322DEF-B7BE-4D6B-B20D-082ABA73648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.9.22" sheetId="1" r:id="rId1"/>
@@ -1589,35 +1589,35 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="2.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.7109375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="1"/>
+    <col min="23" max="23" width="14.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.73046875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1645,11 +1645,11 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
       <c r="D3" s="38">
         <v>44592</v>
@@ -1660,18 +1660,18 @@
       <c r="U3" s="28"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="T4" s="3"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="C6" s="13" t="s">
         <v>0</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1767,7 +1767,7 @@
       <c r="X7" s="19"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>37</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>42</v>
@@ -2118,7 +2118,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>45</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>50</v>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>52</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>54</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>58</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
       <c r="C18" s="1" t="s">
         <v>60</v>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>65</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>67</v>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="C21" s="1" t="s">
         <v>70</v>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>73</v>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>78</v>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>81</v>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>85</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>88</v>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>90</v>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="C28" s="1" t="s">
         <v>92</v>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
       <c r="C29" s="1" t="s">
         <v>95</v>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
       <c r="C30" s="1" t="s">
         <v>97</v>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
       <c r="C31" s="1" t="s">
         <v>99</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3461,7 +3461,7 @@
       <c r="P32" s="6"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
       <c r="C33" s="11" t="s">
         <v>101</v>
@@ -3516,11 +3516,11 @@
       </c>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
       <c r="Z34" s="7"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -3548,10 +3548,10 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C37" s="17"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D40" s="30" t="s">
         <v>102</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C41" s="1" t="s">
         <v>103</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C43" s="1" t="s">
         <v>105</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C44" s="1" t="s">
         <v>106</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C45" s="1" t="s">
         <v>80</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D46" s="30" t="e">
         <f>SUM(D41:D45)</f>
         <v>#REF!</v>
@@ -3650,41 +3650,41 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="2.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.7109375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="1"/>
+    <col min="23" max="23" width="14.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.73046875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3712,11 +3712,11 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
       <c r="D3" s="38">
         <v>44592</v>
@@ -3727,18 +3727,18 @@
       <c r="U3" s="28"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="T4" s="3"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="C6" s="13" t="s">
         <v>0</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3834,7 +3834,7 @@
       <c r="X7" s="19"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>37</v>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>42</v>
@@ -4185,7 +4185,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>45</v>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>50</v>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>52</v>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>54</v>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>58</v>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
       <c r="C18" s="37" t="s">
         <v>107</v>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>60</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>65</v>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="C21" s="1" t="s">
         <v>67</v>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>70</v>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>73</v>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="C24" s="37" t="s">
         <v>109</v>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>78</v>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>85</v>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>88</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="C28" s="1" t="s">
         <v>90</v>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
       <c r="C29" s="1" t="s">
         <v>92</v>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
       <c r="C30" s="1" t="s">
         <v>97</v>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
       <c r="C31" s="1" t="s">
         <v>99</v>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -5528,7 +5528,7 @@
       <c r="P32" s="6"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
       <c r="C33" s="11" t="s">
         <v>101</v>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
       <c r="Z34" s="7"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5615,10 +5615,10 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C37" s="17"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D40" s="30" t="s">
         <v>102</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C41" s="1" t="s">
         <v>103</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C43" s="1" t="s">
         <v>105</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C44" s="1" t="s">
         <v>106</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C45" s="1" t="s">
         <v>80</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D46" s="30" t="e">
         <f>SUM(D41:D45)</f>
         <v>#REF!</v>
@@ -5723,37 +5723,37 @@
       <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="2.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" style="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="1"/>
+    <col min="23" max="23" width="14.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.73046875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.86328125" style="1"/>
+    <col min="28" max="28" width="15.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -5781,11 +5781,11 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
       <c r="D3" s="38">
         <v>44592</v>
@@ -5796,18 +5796,18 @@
       <c r="U3" s="28"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="T4" s="3"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="C6" s="13" t="s">
         <v>0</v>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -5903,7 +5903,7 @@
       <c r="X7" s="19"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -6046,7 +6046,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>37</v>
@@ -6119,7 +6119,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -6192,7 +6192,7 @@
         <v>355000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>42</v>
@@ -6266,7 +6266,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>45</v>
@@ -6339,7 +6339,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>50</v>
@@ -6412,7 +6412,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>52</v>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>54</v>
@@ -6555,7 +6555,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>58</v>
@@ -6628,7 +6628,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
       <c r="C18" s="1" t="s">
         <v>60</v>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>65</v>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>67</v>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="C21" s="1" t="s">
         <v>70</v>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>73</v>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>78</v>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>81</v>
@@ -7118,7 +7118,7 @@
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>85</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>88</v>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>90</v>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="C28" s="1" t="s">
         <v>92</v>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
       <c r="C29" s="1" t="s">
         <v>95</v>
@@ -7468,7 +7468,7 @@
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
       <c r="C30" s="1" t="s">
         <v>97</v>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
       <c r="C31" s="1" t="s">
         <v>99</v>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -7621,7 +7621,7 @@
       <c r="P32" s="6"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
       <c r="C33" s="11" t="s">
         <v>101</v>
@@ -7676,11 +7676,11 @@
       </c>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
       <c r="Z34" s="7"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -7708,10 +7708,10 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C37" s="17"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D40" s="30" t="s">
         <v>102</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C41" s="1" t="s">
         <v>103</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C43" s="1" t="s">
         <v>105</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C44" s="1" t="s">
         <v>106</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C45" s="1" t="s">
         <v>80</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="D46" s="30" t="e">
         <f>SUM(D41:D45)</f>
         <v>#REF!</v>

--- a/ExtractSREO/SREOs/RPA REO Schedule - 01.31.2022.xlsx
+++ b/ExtractSREO/SREOs/RPA REO Schedule - 01.31.2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\source\repos\ExtractSREO\ExtractSREO\SREOs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycdu\source\repos\camgonzo1\ExtractSREO\ExtractSREO\SREOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6322DEF-B7BE-4D6B-B20D-082ABA73648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABB7481-DB12-4957-A15D-9E63C3FA2F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.9.22" sheetId="1" r:id="rId1"/>
@@ -1589,35 +1589,35 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="2.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.265625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.73046875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.86328125" style="1"/>
+    <col min="23" max="23" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.7109375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1645,11 +1645,11 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="D3" s="38">
         <v>44592</v>
@@ -1660,18 +1660,18 @@
       <c r="U3" s="28"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="T4" s="3"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="C6" s="13" t="s">
         <v>0</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1767,7 +1767,7 @@
       <c r="X7" s="19"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>37</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>42</v>
@@ -2118,7 +2118,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>45</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>50</v>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>52</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>54</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>58</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="C18" s="1" t="s">
         <v>60</v>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>65</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>67</v>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="C21" s="1" t="s">
         <v>70</v>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>73</v>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>78</v>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>81</v>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>85</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>88</v>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>90</v>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="C28" s="1" t="s">
         <v>92</v>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="C29" s="1" t="s">
         <v>95</v>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="C30" s="1" t="s">
         <v>97</v>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="C31" s="1" t="s">
         <v>99</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3461,7 +3461,7 @@
       <c r="P32" s="6"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="C33" s="11" t="s">
         <v>101</v>
@@ -3516,11 +3516,11 @@
       </c>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="Z34" s="7"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -3548,10 +3548,10 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C37" s="17"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D40" s="30" t="s">
         <v>102</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>103</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>105</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>106</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>80</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D46" s="30" t="e">
         <f>SUM(D41:D45)</f>
         <v>#REF!</v>
@@ -3653,38 +3653,38 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R63" sqref="R63"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="2.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.265625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.73046875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.86328125" style="1"/>
+    <col min="23" max="23" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.7109375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3712,11 +3712,11 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="D3" s="38">
         <v>44592</v>
@@ -3727,18 +3727,18 @@
       <c r="U3" s="28"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="T4" s="3"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="C6" s="13" t="s">
         <v>0</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3834,7 +3834,7 @@
       <c r="X7" s="19"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="Z9" s="7"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>37</v>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>42</v>
@@ -4185,7 +4185,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>45</v>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>50</v>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>52</v>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>54</v>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>58</v>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="C18" s="37" t="s">
         <v>107</v>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>60</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>65</v>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="C21" s="1" t="s">
         <v>67</v>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>70</v>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>73</v>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="C24" s="37" t="s">
         <v>109</v>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>78</v>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>85</v>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>88</v>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="C28" s="1" t="s">
         <v>90</v>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="C29" s="1" t="s">
         <v>92</v>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="C30" s="1" t="s">
         <v>97</v>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="C31" s="1" t="s">
         <v>99</v>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -5528,7 +5528,7 @@
       <c r="P32" s="6"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="C33" s="11" t="s">
         <v>101</v>
@@ -5583,11 +5583,11 @@
       </c>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="Z34" s="7"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5615,10 +5615,10 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C37" s="17"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D40" s="30" t="s">
         <v>102</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>103</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>105</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>106</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>80</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D46" s="30" t="e">
         <f>SUM(D41:D45)</f>
         <v>#REF!</v>
@@ -5723,37 +5723,37 @@
       <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="2.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.265625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.73046875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.86328125" style="1"/>
-    <col min="28" max="28" width="15.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.86328125" style="1"/>
+    <col min="23" max="23" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -5781,11 +5781,11 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="D3" s="38">
         <v>44592</v>
@@ -5796,18 +5796,18 @@
       <c r="U3" s="28"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="T4" s="3"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="C6" s="13" t="s">
         <v>0</v>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -5903,7 +5903,7 @@
       <c r="X7" s="19"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -6046,7 +6046,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>37</v>
@@ -6119,7 +6119,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>39</v>
@@ -6192,7 +6192,7 @@
         <v>355000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>42</v>
@@ -6266,7 +6266,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>45</v>
@@ -6339,7 +6339,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>50</v>
@@ -6412,7 +6412,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>52</v>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="Z15" s="7"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>54</v>
@@ -6555,7 +6555,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>58</v>
@@ -6628,7 +6628,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="C18" s="1" t="s">
         <v>60</v>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>65</v>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>67</v>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="C21" s="1" t="s">
         <v>70</v>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>73</v>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>78</v>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>81</v>
@@ -7118,7 +7118,7 @@
       </c>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>85</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>88</v>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>90</v>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="C28" s="1" t="s">
         <v>92</v>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="C29" s="1" t="s">
         <v>95</v>
@@ -7468,7 +7468,7 @@
       </c>
       <c r="Z29" s="7"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="C30" s="1" t="s">
         <v>97</v>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="C31" s="1" t="s">
         <v>99</v>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -7621,7 +7621,7 @@
       <c r="P32" s="6"/>
       <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="C33" s="11" t="s">
         <v>101</v>
@@ -7676,11 +7676,11 @@
       </c>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="Z34" s="7"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -7708,10 +7708,10 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C37" s="17"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D40" s="30" t="s">
         <v>102</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>103</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>105</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>106</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>80</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D46" s="30" t="e">
         <f>SUM(D41:D45)</f>
         <v>#REF!</v>
